--- a/Sankey.xlsx
+++ b/Sankey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEXZHAN1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA445F2-47F4-4E68-BAC1-6709BCE91916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9D34CB-3EA0-4578-8B2D-AB0C8E9846BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="18060" windowWidth="21600" windowHeight="11385" xr2:uid="{C3E9B71D-29B6-4671-A656-92B6A195F13A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3E9B71D-29B6-4671-A656-92B6A195F13A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Gruppe Herkunftsberuf</t>
   </si>
@@ -85,13 +85,38 @@
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,15 +142,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,18 +465,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE55FBD-165D-4837-9669-E4438B20F702}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,7 +489,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -474,10 +501,12 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <f ca="1">RANDBETWEEN(1,3000)</f>
+        <v>2844</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01</v>
+        <f ca="1">RANDBETWEEN(100, 1500)/10000</f>
+        <v>0.12640000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -488,10 +517,12 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <f t="shared" ref="C3:C12" ca="1" si="0">RANDBETWEEN(1,3000)</f>
+        <v>1106</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02</v>
+        <f t="shared" ref="D3:D41" ca="1" si="1">RANDBETWEEN(100, 1500)/10000</f>
+        <v>1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -502,10 +533,12 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>600</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>895</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,10 +549,12 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2497</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.4400000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,10 +565,12 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>780</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>167</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,10 +581,12 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>778</v>
       </c>
       <c r="D7" s="1">
-        <v>0.06</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,10 +597,12 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2193</v>
       </c>
       <c r="D8" s="1">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.0200000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,10 +613,12 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1200</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>673</v>
       </c>
       <c r="D9" s="1">
-        <v>0.08</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4100000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,10 +629,12 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1500</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>299</v>
       </c>
       <c r="D10" s="1">
-        <v>0.09</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,10 +645,12 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1800</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>925</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,10 +661,12 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1363</v>
       </c>
       <c r="D12" s="1">
-        <v>0.11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6599999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,10 +677,12 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <f ca="1">RANDBETWEEN(2000,5000)</f>
+        <v>3124</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.129</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,10 +693,12 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <f t="shared" ref="C14:C25" ca="1" si="2">RANDBETWEEN(2000,5000)</f>
+        <v>2530</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,10 +709,12 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>600</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2935</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.7100000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,10 +725,12 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>3000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2405</v>
       </c>
       <c r="D16" s="1">
-        <v>0.04</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,10 +741,12 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>780</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3785</v>
       </c>
       <c r="D17" s="1">
-        <v>0.05</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.17E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,10 +757,12 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2409</v>
       </c>
       <c r="D18" s="1">
-        <v>0.06</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14319999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,10 +773,12 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3502</v>
       </c>
       <c r="D19" s="1">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.32E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,10 +789,12 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>1200</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4219</v>
       </c>
       <c r="D20" s="1">
-        <v>0.08</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1100000000000005E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,10 +805,12 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>1500</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3287</v>
       </c>
       <c r="D21" s="1">
-        <v>0.09</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,10 +821,12 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>1800</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2911</v>
       </c>
       <c r="D22" s="1">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8199999999999996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,10 +837,300 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>2100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2810</v>
       </c>
       <c r="D23" s="1">
-        <v>0.11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11070000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3403</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12180000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>4252</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f ca="1">RANDBETWEEN(300,4000)</f>
+        <v>3646</v>
+      </c>
+      <c r="D26" s="1">
+        <f ca="1">RANDBETWEEN(100, 1500)/10000</f>
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C41" ca="1" si="3">RANDBETWEEN(300,4000)</f>
+        <v>3199</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="3"/>
+        <v>2946</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="3"/>
+        <v>2142</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12139999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="3"/>
+        <v>3139</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14460000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="3"/>
+        <v>3781</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="3"/>
+        <v>2207</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="3"/>
+        <v>2284</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="3"/>
+        <v>1884</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1404</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.6799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1124</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>1641</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.8099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>2246</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11020000000000001</v>
       </c>
     </row>
   </sheetData>
